--- a/data/MicrotagScan_TokenKey.xlsx
+++ b/data/MicrotagScan_TokenKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8373E6D3-7EDF-B14E-8686-A50D502C445C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D19D3-5FCE-5549-ADD2-98BCB04988E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="2340" windowWidth="27640" windowHeight="16940" xr2:uid="{FB90AAC8-A30D-2940-85FD-3EA0FF56ED81}"/>
+    <workbookView xWindow="10760" yWindow="2340" windowWidth="27640" windowHeight="16940" xr2:uid="{FB90AAC8-A30D-2940-85FD-3EA0FF56ED81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,25 +390,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1A1068-403E-FF44-8259-69D6E8F5025F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/MicrotagScan_TokenKey.xlsx
+++ b/data/MicrotagScan_TokenKey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D19D3-5FCE-5549-ADD2-98BCB04988E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44262B3B-F41D-2A49-9428-67F57109CD36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="2340" windowWidth="27640" windowHeight="16940" xr2:uid="{FB90AAC8-A30D-2940-85FD-3EA0FF56ED81}"/>
+    <workbookView xWindow="19580" yWindow="3520" windowWidth="27640" windowHeight="16940" xr2:uid="{FB90AAC8-A30D-2940-85FD-3EA0FF56ED81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>BNA</t>
+    <t>RPALT</t>
   </si>
   <si>
-    <t>RPA</t>
+    <t>BNAKU</t>
   </si>
 </sst>
 </file>
@@ -393,19 +393,19 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="B3:C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
     </row>

--- a/data/MicrotagScan_TokenKey.xlsx
+++ b/data/MicrotagScan_TokenKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44262B3B-F41D-2A49-9428-67F57109CD36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D4E5A-2DD8-324C-A308-BF6F6AF0EEFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="3520" windowWidth="27640" windowHeight="16940" xr2:uid="{FB90AAC8-A30D-2940-85FD-3EA0FF56ED81}"/>
+    <workbookView xWindow="20340" yWindow="3640" windowWidth="27640" windowHeight="16940" xr2:uid="{FB90AAC8-A30D-2940-85FD-3EA0FF56ED81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>RPALT</t>
+    <t>RLASD</t>
   </si>
   <si>
-    <t>BNAKU</t>
+    <t>YNATD</t>
   </si>
 </sst>
 </file>
@@ -393,19 +393,19 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
